--- a/biology/Botanique/Banksia_ashbyi/Banksia_ashbyi.xlsx
+++ b/biology/Botanique/Banksia_ashbyi/Banksia_ashbyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Banksia ashbyi est une espèce d'arbuste buissonnant du genre Banksia de la famille des Proteaceae. On le trouve dans les régions chaudes de la côté d'Australie Occidentale entre Geraldton et Exmouth.
 Sur les autres projets Wikimedia :
